--- a/src/resources/testdata/opencarttestdata.xlsx
+++ b/src/resources/testdata/opencarttestdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{824B1189-FF1A-4B98-BCBB-E72039216DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{60B46F85-F1D0-440B-8273-F94C562E65B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{02F39107-C695-436A-84E9-4E267D41C6A4}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Product" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:K10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/src/resources/testdata/opencarttestdata.xlsx
+++ b/src/resources/testdata/opencarttestdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{824B1189-FF1A-4B98-BCBB-E72039216DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4F04198E-79F8-4420-A901-B5791DB0556C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{02F39107-C695-436A-84E9-4E267D41C6A4}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Product" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:I10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
